--- a/答え合わせソフト/FE_0623.xlsx
+++ b/答え合わせソフト/FE_0623.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
